--- a/result/TrailATR/summary_EURJPY_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_EURJPY_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,54 +554,54 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-29.38199999999998</v>
+        <v>-12.75700000000055</v>
       </c>
       <c r="L2" t="n">
-        <v>-20.87300000000005</v>
+        <v>-20.31400000000014</v>
       </c>
       <c r="M2" t="n">
-        <v>3361</v>
+        <v>3316</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.508999999999929</v>
+        <v>7.55699999999959</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.064999999999998</v>
+        <v>-3.322000000000003</v>
       </c>
       <c r="P2" t="n">
-        <v>4.771999999999991</v>
+        <v>4.014999999999986</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.002531686997917265</v>
+        <v>0.002278950542822554</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4347847459690636</v>
+        <v>0.4140802446702333</v>
       </c>
       <c r="S2" t="n">
         <v>-0.07099999999999795</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2784885450758703</v>
+        <v>0.2044632086851629</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,54 +620,54 @@
         <v>2024</v>
       </c>
       <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>-84.87100000000214</v>
+        <v>-15.30999999999976</v>
       </c>
       <c r="L3" t="n">
-        <v>-48.17000000000108</v>
+        <v>-11.37400000000012</v>
       </c>
       <c r="M3" t="n">
-        <v>4410</v>
+        <v>4941</v>
       </c>
       <c r="N3" t="n">
-        <v>-36.70100000000106</v>
+        <v>-3.935999999999638</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.951000000000022</v>
+        <v>-2.979000000000013</v>
       </c>
       <c r="P3" t="n">
-        <v>8.030999999999977</v>
+        <v>3.730000000000018</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.008322222222222462</v>
+        <v>-0.0007965998785670183</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3589213764175706</v>
+        <v>0.3500293192053417</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.05799999999999983</v>
+        <v>-0.06300000000000239</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2226757369614512</v>
+        <v>0.2479255211495649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2024</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K4" t="n">
-        <v>-89.9990000000025</v>
+        <v>-17.64900000000027</v>
       </c>
       <c r="L4" t="n">
-        <v>-48.17900000000132</v>
+        <v>-17.52500000000023</v>
       </c>
       <c r="M4" t="n">
-        <v>3764</v>
+        <v>3563</v>
       </c>
       <c r="N4" t="n">
-        <v>-41.82000000000117</v>
+        <v>-0.1240000000000379</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.958000000000027</v>
+        <v>-2.938000000000017</v>
       </c>
       <c r="P4" t="n">
-        <v>7.280000000000001</v>
+        <v>3.305000000000007</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01111052072263581</v>
+        <v>-3.480213303397077e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3740614240958922</v>
+        <v>0.4068984401980057</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.06200000000001182</v>
+        <v>-0.07299999999997908</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2109458023379384</v>
+        <v>0.2130227336514174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-111.1050000000026</v>
+        <v>-22.48400000000012</v>
       </c>
       <c r="L5" t="n">
-        <v>-60.95200000000116</v>
+        <v>-16.80500000000005</v>
       </c>
       <c r="M5" t="n">
-        <v>3216</v>
+        <v>3034</v>
       </c>
       <c r="N5" t="n">
-        <v>-50.15300000000141</v>
+        <v>-5.679000000000073</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.29000000000002</v>
+        <v>-3.578000000000003</v>
       </c>
       <c r="P5" t="n">
-        <v>4.014999999999986</v>
+        <v>3.563999999999993</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01559483830845815</v>
+        <v>-0.001871786420566932</v>
       </c>
       <c r="R5" t="n">
-        <v>0.398957060384411</v>
+        <v>0.4204680966238497</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.07750000000000057</v>
+        <v>-0.07399999999998386</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1834577114427861</v>
+        <v>0.1802900461437047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,112 +818,4732 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="K6" t="n">
-        <v>-134.8450000000016</v>
+        <v>-29.38199999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>-71.37200000000077</v>
+        <v>-20.87300000000005</v>
       </c>
       <c r="M6" t="n">
-        <v>4676</v>
+        <v>3361</v>
       </c>
       <c r="N6" t="n">
-        <v>-63.47300000000079</v>
+        <v>-8.508999999999929</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.951000000000022</v>
+        <v>-3.064999999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>4.151999999999987</v>
+        <v>4.771999999999991</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0135742087254065</v>
+        <v>-0.002531686997917265</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3322899438269448</v>
+        <v>0.4347847459690636</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0589999999999975</v>
+        <v>-0.07099999999999795</v>
       </c>
       <c r="T6" t="n">
-        <v>0.227972626176219</v>
+        <v>0.2784885450758703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-29.69600000000105</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-21.71100000000006</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3058</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-7.985000000000994</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-3.718000000000018</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.057000000000016</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.002611183780248853</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.4202920177864605</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.07400000000001228</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1916285153695226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G8" t="n">
+        <v>85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-33.34200000000061</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-22.76500000000014</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3308</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-10.57700000000047</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.014999999999986</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.00319740024183811</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4117484043903868</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.07399999999999807</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2046553808948005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G9" t="n">
+        <v>80</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-46.75300000000087</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-30.6680000000004</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3585</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-16.08500000000046</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-2.767000000000024</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.756</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.004486750348675164</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4031697448096597</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.07399999999998386</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2426778242677824</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>90</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-47.75399999999971</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-25.80699999999989</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-21.94699999999982</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-2.61699999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.588999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.007838214285714221</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4189500412217049</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.07499999999998863</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1678571428571428</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G11" t="n">
+        <v>85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-49.58600000000044</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-33.92300000000029</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2799</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-15.66300000000015</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-3.906000000000006</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.70999999999998</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.005595927116827493</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.423139922563462</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.0730000000000075</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1789924973204716</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B12" t="n">
+        <v>88</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-49.689999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-25.15299999999951</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5175</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-24.53699999999949</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-2.532000000000011</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.944999999999993</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.004741449275362221</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3478871842397852</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.05200000000000671</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3603864734299517</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-59.66700000000205</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-32.46700000000104</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3210</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-27.20000000000101</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-2.61699999999999</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.014999999999986</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.008473520249221499</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4096788173813387</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.07399999999999096</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.1822429906542056</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B14" t="n">
+        <v>87</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-60.81299999999888</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-32.58399999999962</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3083</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-28.22899999999926</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-2.658000000000015</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.728999999999985</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.009156341226078255</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.4337998019012814</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.07099999999999795</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3003567953292248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G15" t="n">
+        <v>70</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-69.21899999999954</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-36.02899999999987</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4859</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-33.18999999999967</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-2.625</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.673000000000002</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.006830623585099747</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3581633540544461</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.05599999999999739</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3502778349454621</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B16" t="n">
+        <v>55</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-69.95199999999986</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-38.84699999999992</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3573</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-31.10499999999993</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-3.562000000000012</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.980999999999995</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.008705569549398245</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.389187068618472</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.07200000000000273</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1911558914077806</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B17" t="n">
+        <v>58</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G17" t="n">
+        <v>90</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-70.91299999999936</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-38.38399999999956</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4561</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-32.5289999999998</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-2.938000000000017</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.730000000000018</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.007131988598991405</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3579057769510458</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2192501644376233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>29</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-77.34999999999741</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-41.64799999999863</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2983</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-35.70199999999878</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-2.007999999999981</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.945999999999998</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.01196848809922855</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.416957039745008</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.07200000000000273</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1847133757961783</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="n">
+        <v>70</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>65</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-78.29800000000122</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-43.91600000000065</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3038</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-34.38200000000057</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-3.562000000000012</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.811000000000007</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.01131731402238333</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4136685654767855</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.07600000000000762</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1826859776168532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-82.34600000000174</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-44.15900000000086</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3292</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-38.18700000000088</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-2.007999999999981</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.945999999999998</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.01159993924665883</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.379698816708024</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.06299999999998818</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2020048602673147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-84.87100000000214</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-48.17000000000108</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4410</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-36.70100000000106</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.030999999999977</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.008322222222222462</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.3589213764175706</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.05799999999999983</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.2226757369614512</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-85.2690000000006</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-46.2530000000003</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3386</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-39.0160000000003</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-1.810000000000002</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.926999999999992</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.01152274069698769</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3867059063273693</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.06100000000000705</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2014176018901359</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B23" t="n">
+        <v>41</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="n">
+        <v>80</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-85.79699999999787</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-46.77999999999888</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4967</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-39.01699999999899</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-2.979000000000013</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.704000000000008</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.007855244614455201</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.3504421553296743</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.06399999999999295</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2347493456814979</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-88.3940000000018</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-47.42700000000094</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3130</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-40.96700000000085</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-2.060000000000002</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.177999999999997</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.01308849840255618</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3800086624563112</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.06699999999997885</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.2006389776357828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B25" t="n">
+        <v>84</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-88.72399999999874</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-47.18499999999932</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4941</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-41.53899999999942</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-2.979000000000013</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.730000000000018</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.008407002631046229</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3485430549954064</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.06400000000002137</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2426634284557782</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="n">
+        <v>55</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>70</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-89.9990000000025</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-48.17900000000132</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3764</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-41.82000000000117</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-3.958000000000027</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.01111052072263581</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3740614240958922</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.06200000000001182</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2109458023379384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="n">
+        <v>95</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-92.88099999999557</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-48.58599999999778</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5215</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-44.29499999999778</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-2.555000000000007</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.423000000000002</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.008493767976989029</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3346321766973406</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.06300000000000239</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2473633748801534</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-93.70099999999965</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-48.14999999999976</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5317</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-45.55099999999989</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-2.555000000000007</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.468999999999994</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.008567049087831463</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.3361564297465108</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.0630000000000166</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.255407184502539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="n">
+        <v>70</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-103.7349999999983</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-54.53499999999902</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4131</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-49.19999999999926</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-3.322000000000003</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.23599999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.01190994916485095</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.375955785918567</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.0689999999999884</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2023723069474704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>76</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>80</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-105.5350000000013</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-55.3610000000006</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2915</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-50.1740000000007</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.131999999999977</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.01721234991423695</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.4157751617114627</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.07800000000000296</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1694682675814751</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>70</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-107.321000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-57.47900000000041</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3752</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-49.84200000000058</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-3.958000000000027</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.01328411513859291</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3726144180871621</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.0625</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.207089552238806</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B32" t="n">
+        <v>83</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>80</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-109.0610000000003</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-59.9700000000002</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3028</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-49.09100000000012</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.353000000000009</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.0162123513870542</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4218999786217696</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.07699999999999818</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1714002642007926</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G33" t="n">
+        <v>95</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-111.1050000000026</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-60.95200000000116</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3216</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-50.15300000000141</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-3.29000000000002</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.014999999999986</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.01559483830845815</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.398957060384411</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.07750000000000057</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.1834577114427861</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>65</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-115.3360000000025</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-60.75300000000134</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3870</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-54.58300000000115</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7.552999999999997</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.01410413436692536</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.3762084655739027</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.06299999999999528</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2087855297157623</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n">
+        <v>43</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>90</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-119.1440000000008</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-62.81900000000034</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3415</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-56.32500000000043</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1.810000000000002</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6.926999999999992</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.0164934114202051</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3697179248476631</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.06199999999999761</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1973645680819912</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G36" t="n">
+        <v>65</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-119.4049999999982</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-60.07899999999894</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5447</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-59.3259999999993</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-2.964000000000027</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.519000000000005</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.01089149990820622</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3398084101705347</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.0619999999999834</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2959427207637231</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B37" t="n">
+        <v>52</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>80</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>95</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-123.2670000000023</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-64.37000000000123</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3250</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-58.8970000000011</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-2.007999999999981</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.155000000000001</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.01812215384615418</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.3722410081591776</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.0660000000000025</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2003076923076923</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-125.0519999999985</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-64.98899999999915</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2939</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-60.06299999999933</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-1.97199999999998</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5.968999999999994</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.02043654304185074</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4083255015063689</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.0730000000000075</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.1782919360326642</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n">
+        <v>27</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>85</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-126.4739999999985</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-68.6459999999992</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3177</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-57.82799999999934</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-3.906000000000006</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.84099999999998</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.01820207743153898</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.4054696543826787</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.07499999999998863</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1772112055398175</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B40" t="n">
+        <v>54</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G40" t="n">
+        <v>75</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-127.5270000000018</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-66.81000000000097</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3838</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-60.71700000000087</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7.552999999999997</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.01581995831162086</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3778584586124407</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.06299999999998818</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2100052110474205</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B41" t="n">
+        <v>71</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G41" t="n">
+        <v>100</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-131.4240000000007</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-68.89500000000038</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4175</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-62.52900000000034</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7.766999999999996</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.01497700598802403</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.3617975924662698</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.06200000000001182</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2150898203592814</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G42" t="n">
+        <v>20</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>45</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-134.8450000000016</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-71.37200000000077</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4676</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-63.47300000000079</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.151999999999987</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.0135742087254065</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.3322899438269448</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.0589999999999975</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.227972626176219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="n">
+        <v>55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-137.5950000000033</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-70.31100000000161</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10795</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-67.28400000000171</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-3.578000000000003</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.093999999999994</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.006232885595183113</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2489465215475162</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.04400000000001114</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.3257989810097267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B44" t="n">
+        <v>35</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G44" t="n">
+        <v>40</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-140.9830000000011</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-72.67800000000047</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3675</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-68.30500000000067</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-2.767000000000024</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.76400000000001</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.01858639455782331</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3862799659052873</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.2299319727891156</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B45" t="n">
+        <v>89</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G45" t="n">
+        <v>90</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>60</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-144.0090000000014</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-74.14200000000076</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4006</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-69.86700000000062</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P45" t="n">
+        <v>7.568999999999988</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.01744058911632566</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.3659774870923956</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-0.06300000000000239</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.2091862206689965</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-145.3500000000039</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-75.82800000000202</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5720</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-69.5220000000019</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.277999999999992</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.01215419580419614</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3164660986713574</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.0589999999999975</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EURJPY</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G47" t="n">
         <v>30</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H47" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I47" t="n">
         <v>30</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J47" t="n">
         <v>0.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K47" t="n">
         <v>-153.9069999999967</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L47" t="n">
         <v>-77.03099999999834</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M47" t="n">
         <v>4885</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N47" t="n">
         <v>-76.8759999999984</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O47" t="n">
         <v>-2.979000000000013</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P47" t="n">
         <v>3.825999999999993</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q47" t="n">
         <v>-0.01573715455475914</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R47" t="n">
         <v>0.3461590899559768</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S47" t="n">
         <v>-0.06599999999997408</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T47" t="n">
         <v>0.22517911975435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B48" t="n">
+        <v>72</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>85</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-156.1660000000006</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-78.0830000000003</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4833</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-78.0830000000003</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-2.149999999999977</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.673000000000002</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.01615621767018421</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3392167067637791</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.06199999999999761</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.3366439064763087</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>92</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-158.6669999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-80.02399999999997</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2576</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-78.64299999999994</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-2.532000000000011</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.843999999999994</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.03052911490683228</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4304013437466319</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.3070652173913043</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>65</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-162.7680000000013</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-85.23800000000068</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3902</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-77.53000000000065</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7.552999999999997</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.01986929779600222</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3693167869443274</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06100000000000705</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2073295745771399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>64</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G51" t="n">
+        <v>45</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>75</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-164.3070000000019</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-84.62500000000097</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3664</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-79.68200000000098</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-2.75200000000001</v>
+      </c>
+      <c r="P51" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.02174727074235835</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3677068417898983</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.0630000000000166</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2038755458515284</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G52" t="n">
+        <v>30</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>70</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-166.934000000002</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-86.84900000000098</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3788</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-80.08500000000097</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P52" t="n">
+        <v>7.280000000000001</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.02114176346356942</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3667968396278618</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.06200000000001182</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.205649419218585</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B53" t="n">
+        <v>77</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G53" t="n">
+        <v>75</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-174.3620000000011</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-90.17000000000058</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3138</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-84.19200000000052</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-2.060000000000002</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.215000000000003</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-0.02682982791587015</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.3850350646328816</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-0.06800000000001205</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.1934353091140854</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G54" t="n">
+        <v>40</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-180.840999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-93.22399999999948</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2961</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-87.61699999999954</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-1.97199999999998</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5.968999999999994</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.02959034110097924</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3989081722016893</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.07800000000000296</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1681864235055724</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B55" t="n">
+        <v>86</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G55" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>55</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-194.8110000000002</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-100.8070000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3117</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-94.00400000000008</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-2.61699999999999</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.014999999999986</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.03015848572345206</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.3835262171301927</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.0870000000000033</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.1575232595444337</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G56" t="n">
+        <v>90</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-197.9039999999995</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-98.95199999999977</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2174</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-98.95199999999977</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-2.369</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3.673000000000002</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.04551609935602565</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3913099887946989</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.1540000000000248</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2631094756209751</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B57" t="n">
+        <v>17</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>90</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-210.3979999999995</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-108.0779999999998</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2842</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-102.3199999999997</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-2.61699999999999</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5.588999999999999</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.03600281491907098</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.3942538235735331</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.08599999999998431</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.1414496833216045</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>74</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G58" t="n">
+        <v>90</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>75</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-213.4819999999985</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-109.5379999999993</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3352</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-103.9439999999992</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-3.934000000000026</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5.466999999999985</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-0.03100954653937923</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.3893790163905647</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.07900000000000773</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.1697494033412888</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B59" t="n">
+        <v>25</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G59" t="n">
+        <v>85</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-213.6170000000024</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-109.3510000000012</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3575</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-104.2660000000012</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-2.451999999999998</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.411999999999978</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.02916531468531503</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3697796468391806</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.08400000000000318</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2296503496503496</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B60" t="n">
+        <v>50</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-225.2929999999999</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-114.8829999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2939</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-110.41</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.03756719972779855</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.3666677473925158</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.1089999999999804</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.1350799591697856</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>55</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>35</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-244.7230000000017</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-124.9890000000009</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5306</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-119.7340000000008</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4.149000000000001</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-0.02256577459479849</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3230793844303981</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-0.06199999999999761</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.2235205427817565</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B62" t="n">
+        <v>34</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>85</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-250.9610000000017</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-126.8540000000008</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8987</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-124.1070000000009</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-3.578000000000003</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4.068999999999988</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-0.01380961388672537</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.270088833732894</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-0.0519999999999925</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.2763992433515077</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B63" t="n">
+        <v>70</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G63" t="n">
+        <v>40</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-253.4510000000012</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-127.9260000000006</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2959</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-125.5250000000005</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.76400000000001</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.04242142615748582</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.359116047746544</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.11099999999999</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.1328151402500845</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B64" t="n">
+        <v>60</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G64" t="n">
+        <v>80</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>95</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-255.6530000000002</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-131.3410000000001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2728</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-124.3120000000001</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-1.15100000000001</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5.77000000000001</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.04556891495601178</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3636810324234278</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.1198680351906158</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B65" t="n">
+        <v>51</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>40</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-256.6760000000014</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-130.4380000000007</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5070</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-126.2380000000007</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4.189000000000021</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02489901380670625</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3178372508170131</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.06099999999997863</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.2136094674556213</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B66" t="n">
+        <v>47</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G66" t="n">
+        <v>75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>55</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-263.5500000000003</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-134.2470000000002</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4123</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-129.3030000000001</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-3.727000000000004</v>
+      </c>
+      <c r="P66" t="n">
+        <v>7.766999999999996</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.03136138733931605</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3526517946486958</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.06700000000000728</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.2025224351200582</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B67" t="n">
+        <v>28</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-307.3720000000043</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-155.2830000000022</v>
+      </c>
+      <c r="M67" t="n">
+        <v>6415</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-152.0890000000021</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4.405999999999977</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.02370833982852722</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2948326693757438</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.0589999999999975</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.2268121590023383</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B68" t="n">
+        <v>79</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G68" t="n">
+        <v>65</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-320.9420000000001</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-160.471</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3527</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-160.471</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-3.562000000000012</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3.980999999999995</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-0.04549787354692374</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3441746815728833</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-0.1069999999999993</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.145165863339949</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="n">
+        <v>20</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-330.9119999999971</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-165.4559999999986</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3921</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-165.4559999999986</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-2.27000000000001</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4.311000000000007</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.04219739862279994</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.326596729815078</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.1069999999999993</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.1540423361387401</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B70" t="n">
+        <v>78</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G70" t="n">
+        <v>70</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-366.0959999999982</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-183.0889999999991</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4359</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-183.0069999999991</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-3.099000000000018</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4.080000000000013</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-0.04198371186051827</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3306904800360867</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-0.106000000000023</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.1619637531543932</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B71" t="n">
+        <v>93</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G71" t="n">
+        <v>80</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>85</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-411.3139999999988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-205.6569999999994</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3157</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-205.6569999999994</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-1.72999999999999</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.245000000000005</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-0.06514317389927127</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2466390496378688</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-0.08299999999999841</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.08742477035159962</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B72" t="n">
+        <v>26</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>80</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-440.0230000000009</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-220.0330000000005</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3545</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-219.9900000000004</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-2.75200000000001</v>
+      </c>
+      <c r="P72" t="n">
+        <v>6.87299999999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-0.06205641748942185</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2656187670293022</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-0.08099999999998886</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1091678420310296</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B73" t="n">
+        <v>82</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G73" t="n">
+        <v>95</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-440.9220000000001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-220.4610000000001</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3092</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-220.4610000000001</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-2.658000000000015</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3.486999999999995</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-0.0713004527813713</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2489998388634004</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-0.08600000000001273</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.1274256144890039</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>95</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G74" t="n">
+        <v>75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-566.8299999999984</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-283.4149999999992</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4811</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-283.4149999999992</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-2.555000000000007</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.425999999999988</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-0.05890979006443551</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2385412175302115</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-0.08100000000000307</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.1116192059862814</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B75" t="n">
+        <v>68</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G75" t="n">
+        <v>40</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>35</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-616.5410000000018</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-308.479000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5389</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-308.0620000000008</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4.151999999999987</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-0.05716496567081106</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2434278243126028</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-0.07900000000000773</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.1278530339580627</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B76" t="n">
+        <v>69</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>40</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-617.8400000000042</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-308.9200000000021</v>
+      </c>
+      <c r="M76" t="n">
+        <v>10761</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-308.9200000000021</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4.093999999999994</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-0.02870736920360581</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2413364108864515</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-0.05299999999999727</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.3035033918780782</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G77" t="n">
+        <v>30</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>15</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-681.6320000000026</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-341.5820000000013</v>
+      </c>
+      <c r="M77" t="n">
+        <v>8003</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-340.0500000000012</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-3.951000000000022</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.391999999999996</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-0.04249031613145086</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2502241579094373</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-0.07699999999999818</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.210171185805323</v>
       </c>
     </row>
   </sheetData>
